--- a/rough.xlsx
+++ b/rough.xlsx
@@ -1,65 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karthikeyan.s\Documents\VSCodeProject\Python-Projects\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BDA17E-2469-4CFC-90E2-A2F0039EEC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>Column3</t>
-  </si>
-  <si>
-    <t>qwe</t>
-  </si>
-  <si>
-    <t>wer</t>
-  </si>
-  <si>
-    <t>ert</t>
-  </si>
-  <si>
-    <t>rty</t>
-  </si>
-  <si>
-    <t>tyu</t>
-  </si>
-  <si>
-    <t>yui</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>JoinDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>EndDate1</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Bob</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+  </numFmts>
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -75,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -83,27 +74,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -118,44 +119,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -182,15 +183,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -217,7 +217,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -229,230 +228,217 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>123</v>
-      </c>
-      <c r="B2" s="1">
-        <v>987</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45177</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45189</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45199</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>234</v>
-      </c>
-      <c r="B3">
-        <v>876</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>345</v>
-      </c>
-      <c r="B4">
-        <v>765</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>567</v>
-      </c>
-      <c r="B5">
-        <v>654</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>789</v>
-      </c>
-      <c r="B6">
-        <v>543</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>890</v>
-      </c>
-      <c r="B7">
-        <v>321</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
+      <c r="B3" s="2">
+        <v>45178</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45190</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45220</v>
       </c>
     </row>
   </sheetData>

--- a/rough.xlsx
+++ b/rough.xlsx
@@ -14,24 +14,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>JoinDate</t>
-  </si>
-  <si>
-    <t>EndDate</t>
-  </si>
-  <si>
-    <t>EndDate1</t>
-  </si>
-  <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>Bob</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="32">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
+  <si>
+    <t>Unnamed: 1</t>
+  </si>
+  <si>
+    <t>Unnamed: 2</t>
+  </si>
+  <si>
+    <t>Unnamed: 3</t>
+  </si>
+  <si>
+    <t>Unnamed: 4</t>
+  </si>
+  <si>
+    <t>Unnamed: 5</t>
+  </si>
+  <si>
+    <t>Unnamed: 6</t>
+  </si>
+  <si>
+    <t>Unnamed: 7</t>
+  </si>
+  <si>
+    <t>Unnamed: 8</t>
+  </si>
+  <si>
+    <t>Unnamed: 9</t>
+  </si>
+  <si>
+    <t>Unnamed: 10</t>
+  </si>
+  <si>
+    <t>Unnamed: 11</t>
+  </si>
+  <si>
+    <t>Week-1 : ( Aug 4 - Aug 8 )</t>
+  </si>
+  <si>
+    <t>User-wise Error Data:</t>
+  </si>
+  <si>
+    <t>Worked Date</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Week-2 : ( Aug 11 - Aug 15 )</t>
+  </si>
+  <si>
+    <t>Week-3 : ( Aug 18 - Aug 22 )</t>
+  </si>
+  <si>
+    <t>Week-4 : ( Aug 25 - Aug 29 )</t>
+  </si>
+  <si>
+    <t>User Name</t>
+  </si>
+  <si>
+    <t>SueEvans</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>No Error</t>
+  </si>
+  <si>
+    <t>Audited Count</t>
+  </si>
+  <si>
+    <t>Accuracy %</t>
+  </si>
+  <si>
+    <t>Error Category:</t>
+  </si>
+  <si>
+    <t>Error Type</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>TNT</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Water</t>
   </si>
 </sst>
 </file>
@@ -39,7 +117,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -393,13 +471,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,33 +490,688 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2">
-        <v>45177</v>
-      </c>
-      <c r="C2" s="2">
-        <v>45189</v>
-      </c>
-      <c r="D2" s="2">
-        <v>45199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
-        <v>45178</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45190</v>
-      </c>
-      <c r="D3" s="2">
-        <v>45220</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="2">
+        <v>45874</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>53</v>
+      </c>
+      <c r="E7">
+        <v>54</v>
+      </c>
+      <c r="F7">
+        <v>0.98</v>
+      </c>
+      <c r="I7" s="2">
+        <v>45874</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="2">
+        <v>45875</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>29</v>
+      </c>
+      <c r="F8">
+        <v>0.93</v>
+      </c>
+      <c r="I8" s="2">
+        <v>45875</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="2">
+        <v>45876</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>36</v>
+      </c>
+      <c r="E9">
+        <v>36</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="2">
+        <v>45877</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>63</v>
+      </c>
+      <c r="E10">
+        <v>63</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>179</v>
+      </c>
+      <c r="E11">
+        <v>182</v>
+      </c>
+      <c r="F11">
+        <v>0.9835164835164835</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="2">
+        <v>45880</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>39</v>
+      </c>
+      <c r="E20">
+        <v>40</v>
+      </c>
+      <c r="F20">
+        <v>0.98</v>
+      </c>
+      <c r="I20" s="2">
+        <v>45880</v>
+      </c>
+      <c r="J20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="2">
+        <v>45881</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>23</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>45882</v>
+      </c>
+      <c r="J21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="2">
+        <v>45882</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>35</v>
+      </c>
+      <c r="E22">
+        <v>36</v>
+      </c>
+      <c r="F22">
+        <v>0.97</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="2">
+        <v>45883</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>11</v>
+      </c>
+      <c r="E23">
+        <v>11</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>108</v>
+      </c>
+      <c r="E24">
+        <v>110</v>
+      </c>
+      <c r="F24">
+        <v>0.9818181818181818</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="2">
+        <v>45887</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>58</v>
+      </c>
+      <c r="E33">
+        <v>60</v>
+      </c>
+      <c r="F33">
+        <v>0.97</v>
+      </c>
+      <c r="I33" s="2">
+        <v>45887</v>
+      </c>
+      <c r="J33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="2">
+        <v>45888</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>54</v>
+      </c>
+      <c r="E34">
+        <v>55</v>
+      </c>
+      <c r="F34">
+        <v>0.98</v>
+      </c>
+      <c r="I34" s="2">
+        <v>45888</v>
+      </c>
+      <c r="J34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="2">
+        <v>45889</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>53</v>
+      </c>
+      <c r="E35">
+        <v>54</v>
+      </c>
+      <c r="F35">
+        <v>0.98</v>
+      </c>
+      <c r="I35" s="2">
+        <v>45889</v>
+      </c>
+      <c r="J35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="2">
+        <v>45890</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>52</v>
+      </c>
+      <c r="E36">
+        <v>54</v>
+      </c>
+      <c r="F36">
+        <v>0.96</v>
+      </c>
+      <c r="I36" s="2">
+        <v>45890</v>
+      </c>
+      <c r="J36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>217</v>
+      </c>
+      <c r="E37">
+        <v>223</v>
+      </c>
+      <c r="F37">
+        <v>0.9730941704035875</v>
+      </c>
+      <c r="K37" t="s">
+        <v>30</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="I38" t="s">
+        <v>15</v>
+      </c>
+      <c r="L38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" t="s">
+        <v>26</v>
+      </c>
+      <c r="L46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="2">
+        <v>45895</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>40</v>
+      </c>
+      <c r="E47">
+        <v>41</v>
+      </c>
+      <c r="F47">
+        <v>0.98</v>
+      </c>
+      <c r="I47" s="2">
+        <v>45895</v>
+      </c>
+      <c r="J47" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" t="s">
+        <v>28</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>40</v>
+      </c>
+      <c r="E48">
+        <v>41</v>
+      </c>
+      <c r="F48">
+        <v>0.975609756097561</v>
+      </c>
+      <c r="I48" t="s">
+        <v>15</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
